--- a/Deltagere.xlsx
+++ b/Deltagere.xlsx
@@ -486,10 +486,26 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -512,14 +528,26 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="7">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -795,10 +823,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N17"/>
+  <dimension ref="A1:O17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="O2" sqref="O2:O17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -810,7 +838,7 @@
     <col min="13" max="13" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -854,7 +882,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -897,8 +925,12 @@
       <c r="N2" t="s">
         <v>24</v>
       </c>
+      <c r="O2" t="str">
+        <f>CONCATENATE(E2," &lt;",N2,"&gt;, ")</f>
+        <v xml:space="preserve">Charlotte Henriette Lykke Ibsen &lt;chaibs@live.dk&gt;, </v>
+      </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -941,8 +973,12 @@
       <c r="N3" t="s">
         <v>33</v>
       </c>
+      <c r="O3" t="str">
+        <f t="shared" ref="O3:O17" si="0">CONCATENATE(E3," &lt;",N3,"&gt;, ")</f>
+        <v xml:space="preserve">Christina Barbara Tomazos &lt;christinatomazos@gmail.com&gt;, </v>
+      </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -985,8 +1021,12 @@
       <c r="N4" t="s">
         <v>42</v>
       </c>
+      <c r="O4" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">David Hyldkrog &lt;hylle2002@yahoo.dk&gt;, </v>
+      </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -1029,8 +1069,12 @@
       <c r="N5" t="s">
         <v>51</v>
       </c>
+      <c r="O5" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">Iris Graessner &lt;iris.graessner@gmail.com&gt;, </v>
+      </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -1073,8 +1117,12 @@
       <c r="N6" t="s">
         <v>57</v>
       </c>
+      <c r="O6" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">Iwan Hettlich Bonnen &lt;iwanhb@gmail.com&gt;, </v>
+      </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -1117,8 +1165,12 @@
       <c r="N7" t="s">
         <v>65</v>
       </c>
+      <c r="O7" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">Jacob Sørensen &lt;sjonne11@hotmail.com&gt;, </v>
+      </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -1161,8 +1213,12 @@
       <c r="N8" t="s">
         <v>74</v>
       </c>
+      <c r="O8" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">John Erik Lüdeking &lt;john@skakmester.dk&gt;, </v>
+      </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -1205,8 +1261,12 @@
       <c r="N9" t="s">
         <v>83</v>
       </c>
+      <c r="O9" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">Kim Bjerge Johansson &lt;kim.b.johansson@gmail.com&gt;, </v>
+      </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -1249,8 +1309,12 @@
       <c r="N10" t="s">
         <v>92</v>
       </c>
+      <c r="O10" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">Lars Schackinger Larsen &lt;lschacl@gmail.com&gt;, </v>
+      </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -1293,8 +1357,12 @@
       <c r="N11" t="s">
         <v>101</v>
       </c>
+      <c r="O11" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">Lene Lehrmann Mortensen &lt;lenelehrmann@outlook.com&gt;, </v>
+      </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -1337,8 +1405,12 @@
       <c r="N12" t="s">
         <v>110</v>
       </c>
+      <c r="O12" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">Martin Lynge &lt;ma.ly@outlook.dk&gt;, </v>
+      </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -1381,8 +1453,12 @@
       <c r="N13" t="s">
         <v>117</v>
       </c>
+      <c r="O13" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">Mette Andersen &lt;sygeplejerske.nu@gmail.com&gt;, </v>
+      </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -1425,8 +1501,12 @@
       <c r="N14" t="s">
         <v>125</v>
       </c>
+      <c r="O14" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">Nicholas Jeff Petersen &lt;nicholas.pet@me.com&gt;, </v>
+      </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -1469,8 +1549,12 @@
       <c r="N15" t="s">
         <v>133</v>
       </c>
+      <c r="O15" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">Sabina Hult &lt;s@bina.dk&gt;, </v>
+      </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -1513,8 +1597,12 @@
       <c r="N16" t="s">
         <v>141</v>
       </c>
+      <c r="O16" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">Sebastian Ehlers Larsen &lt;zebberlarsen@gmail.com&gt;, </v>
+      </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -1556,9 +1644,14 @@
       </c>
       <c r="N17" t="s">
         <v>150</v>
+      </c>
+      <c r="O17" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">Yosuke Ueda &lt;yosukeueda@hotmail.com&gt;, </v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>